--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -55,6 +61,18 @@
     <t>银华中小市值量化优选股票C</t>
   </si>
   <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
     <t>82.16</t>
   </si>
   <si>
@@ -65,6 +83,18 @@
   </si>
   <si>
     <t>1.17</t>
+  </si>
+  <si>
+    <t>0.0173</t>
+  </si>
+  <si>
+    <t>0.0057</t>
+  </si>
+  <si>
+    <t>0.0015</t>
+  </si>
+  <si>
+    <t>0.0001</t>
   </si>
 </sst>
 </file>
@@ -422,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,84 +474,114 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -1,132 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>005855</t>
-  </si>
-  <si>
-    <t>005856</t>
-  </si>
-  <si>
-    <t>005515</t>
-  </si>
-  <si>
-    <t>005516</t>
-  </si>
-  <si>
-    <t>中科沃土沃瑞灵活配置混合A</t>
-  </si>
-  <si>
-    <t>中科沃土沃瑞灵活配置混合C</t>
-  </si>
-  <si>
-    <t>银华中小市值量化优选股票A</t>
-  </si>
-  <si>
-    <t>银华中小市值量化优选股票C</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>82.16</t>
-  </si>
-  <si>
-    <t>90.81</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>1.17</t>
-  </si>
-  <si>
-    <t>0.0173</t>
-  </si>
-  <si>
-    <t>0.0057</t>
-  </si>
-  <si>
-    <t>0.0015</t>
-  </si>
-  <si>
-    <t>0.0001</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,141 +446,1519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2751</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009651</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002537</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安安盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>167001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安鼎泰灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009652</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通成长甄选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>167002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安鼎越灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003319</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003320</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信瑞丰添利混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,1504 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7952</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2716</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证虚拟现实主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006692</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>金信消费升级股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006693</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>金信消费升级股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009039</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009040</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>九泰久远量化驱动股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3462,4 +3463,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>012412</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇泉策略优选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1375</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.35</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3613,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>4.49</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="4">
@@ -3534,13 +3629,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3566,7 +3567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3577,17 +3578,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3597,14 +3618,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3613,14 +3656,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.35</v>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3629,14 +3694,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3645,13 +3732,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3851,7 +3852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,17 +3863,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3882,14 +3903,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -3898,14 +3941,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.14</v>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3914,14 +3979,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.35</v>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3930,14 +4017,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.49</v>
+          <t>004931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3946,13 +4055,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300458-全志科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.61</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.14</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>3.35</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" t="n">
-        <v>4.49</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2782,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4092,7 +4241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
